--- a/PlutoTV_4월편성_CC_220411.xlsx
+++ b/PlutoTV_4월편성_CC_220411.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young hwa\Desktop\yh\source\solRTMP_filelive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9548B96-D66A-45E7-8BDD-C7169FFB9B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEBDDF4-92E5-4F9D-859D-DBC806EEE70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5663,7 +5663,7 @@
   <dimension ref="A1:T1084"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5671,8 +5671,12 @@
     <col min="1" max="1" width="38.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="10" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.26953125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="32.90625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="41.54296875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="34.54296875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="32.81640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="69.453125" style="1" customWidth="1"/>
     <col min="11" max="11" width="67.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.36328125" bestFit="1" customWidth="1"/>

--- a/PlutoTV_4월편성_CC_220411.xlsx
+++ b/PlutoTV_4월편성_CC_220411.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young hwa\Desktop\yh\source\solRTMP_filelive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEBDDF4-92E5-4F9D-859D-DBC806EEE70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDBA885-9FEB-4503-9A7E-390942A85F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5662,8 +5662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1084"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
